--- a/static/xl/payments-to-company.xlsx
+++ b/static/xl/payments-to-company.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Отправитель</t>
   </si>
@@ -29,24 +29,6 @@
   </si>
   <si>
     <t>Сумма перевода</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>ВТБ</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>10000</t>
   </si>
 </sst>
 </file>
@@ -404,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,146 +409,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
